--- a/files_for_testing/test_1.xlsx
+++ b/files_for_testing/test_1.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arkadiusz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arkadiusz/1.MyAllFiles/1.Studies/6th_Semester/TIAD/zadanie1/tiad_1/files_for_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C464F2A7-5635-E24F-9FFB-097CF48ED822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0D12FA-6112-AC40-A6C3-A4FF100375D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{F9BFA59D-DA72-3A47-8F4A-6BF2CD9078F6}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="22800" windowHeight="21380" activeTab="1" xr2:uid="{F9BFA59D-DA72-3A47-8F4A-6BF2CD9078F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Lp</t>
   </si>
@@ -547,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5644B605-7415-214C-A1D9-857183C76E44}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,5 +716,501 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF064B4-688B-9E42-B7A0-E0B3D3BE1412}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U1" sqref="A1:U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="str">
+        <f>_xlfn.CONCAT(A1,"_2")</f>
+        <v>Lp_2</v>
+      </c>
+      <c r="I1" s="4" t="str">
+        <f t="shared" ref="I1:L1" si="0">_xlfn.CONCAT(B1,"_2")</f>
+        <v>Imie_2</v>
+      </c>
+      <c r="J1" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Nazwisko_2</v>
+      </c>
+      <c r="K1" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Data urodzenia_2</v>
+      </c>
+      <c r="L1" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Miasto_2</v>
+      </c>
+      <c r="M1" s="4" t="str">
+        <f>_xlfn.CONCAT(F1,"_2")</f>
+        <v>Kraj_2</v>
+      </c>
+      <c r="N1" s="4" t="str">
+        <f t="shared" ref="N1" si="1">_xlfn.CONCAT(G1,"_2")</f>
+        <v>Email_2</v>
+      </c>
+      <c r="O1" s="4" t="str">
+        <f>_xlfn.CONCAT(A1,"_3")</f>
+        <v>Lp_3</v>
+      </c>
+      <c r="P1" s="4" t="str">
+        <f t="shared" ref="P1:T1" si="2">_xlfn.CONCAT(B1,"_3")</f>
+        <v>Imie_3</v>
+      </c>
+      <c r="Q1" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Nazwisko_3</v>
+      </c>
+      <c r="R1" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Data urodzenia_3</v>
+      </c>
+      <c r="S1" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Miasto_3</v>
+      </c>
+      <c r="T1" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Kraj_3</v>
+      </c>
+      <c r="U1" s="4" t="str">
+        <f>_xlfn.CONCAT(G1,"_3")</f>
+        <v>Email_3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>B2&amp;"."&amp;C2&amp;"@gmail.com"</f>
+        <v>Adam.Nowak1@gmail.com</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f t="shared" ref="H2:H6" si="3">_xlfn.CONCAT(A2,"_2")</f>
+        <v>1_2</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" ref="I2:I6" si="4">_xlfn.CONCAT(B2,"_2")</f>
+        <v>Adam_2</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f t="shared" ref="J2:J6" si="5">_xlfn.CONCAT(C2,"_2")</f>
+        <v>Nowak1_2</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f t="shared" ref="K2:K6" si="6">_xlfn.CONCAT(D2,"_2")</f>
+        <v>1.01.2000_2</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f t="shared" ref="L2:L6" si="7">_xlfn.CONCAT(E2,"_2")</f>
+        <v>Łódź_2</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f t="shared" ref="M2:M6" si="8">_xlfn.CONCAT(F2,"_2")</f>
+        <v>Polska_2</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f t="shared" ref="N2:N6" si="9">_xlfn.CONCAT(G2,"_2")</f>
+        <v>Adam.Nowak1@gmail.com_2</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f t="shared" ref="O2:O6" si="10">_xlfn.CONCAT(A2,"_3")</f>
+        <v>1_3</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f t="shared" ref="P2:P6" si="11">_xlfn.CONCAT(B2,"_3")</f>
+        <v>Adam_3</v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f t="shared" ref="Q2:Q6" si="12">_xlfn.CONCAT(C2,"_3")</f>
+        <v>Nowak1_3</v>
+      </c>
+      <c r="R2" s="2" t="str">
+        <f t="shared" ref="R2:R6" si="13">_xlfn.CONCAT(D2,"_3")</f>
+        <v>1.01.2000_3</v>
+      </c>
+      <c r="S2" s="2" t="str">
+        <f t="shared" ref="S2:S6" si="14">_xlfn.CONCAT(E2,"_3")</f>
+        <v>Łódź_3</v>
+      </c>
+      <c r="T2" s="2" t="str">
+        <f t="shared" ref="T2:T6" si="15">_xlfn.CONCAT(F2,"_3")</f>
+        <v>Polska_3</v>
+      </c>
+      <c r="U2" s="2" t="str">
+        <f t="shared" ref="U2:U6" si="16">_xlfn.CONCAT(G2,"_3")</f>
+        <v>Adam.Nowak1@gmail.com_3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G6" si="17">B3&amp;"."&amp;C3&amp;"@gmail.com"</f>
+        <v>Michał.Nowak2@gmail.com</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>2_2</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Michał_2</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Nowak2_2</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>1.01.2001_2</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Kraków_2</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Polska_2</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Michał.Nowak2@gmail.com_2</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>2_3</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Michał_3</v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Nowak2_3</v>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1.01.2001_3</v>
+      </c>
+      <c r="S3" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Kraków_3</v>
+      </c>
+      <c r="T3" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>Polska_3</v>
+      </c>
+      <c r="U3" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>Michał.Nowak2@gmail.com_3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>Mateusz.Nowak3@gmail.com</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3_2</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Mateusz_2</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Nowak3_2</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>1.01.2002_2</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Warszawa_2</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Polska_2</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Mateusz.Nowak3@gmail.com_2</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>3_3</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Mateusz_3</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Nowak3_3</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1.01.2002_3</v>
+      </c>
+      <c r="S4" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Warszawa_3</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>Polska_3</v>
+      </c>
+      <c r="U4" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>Mateusz.Nowak3@gmail.com_3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>Bartłomiej.Nowak4@gmail.com</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>4_2</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Bartłomiej_2</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Nowak4_2</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>1.01.2003_2</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Gdynia_2</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Polska_2</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Bartłomiej.Nowak4@gmail.com_2</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>4_3</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Bartłomiej_3</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Nowak4_3</v>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1.01.2003_3</v>
+      </c>
+      <c r="S5" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Gdynia_3</v>
+      </c>
+      <c r="T5" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>Polska_3</v>
+      </c>
+      <c r="U5" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>Bartłomiej.Nowak4@gmail.com_3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>Tomasz.Nowak5@gmail.com</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>5_2</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Tomasz_2</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Nowak5_2</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>1.01.2004_2</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Sopot_2</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Polska_2</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Tomasz.Nowak5@gmail.com_2</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>5_3</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Tomasz_3</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Nowak5_3</v>
+      </c>
+      <c r="R6" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>1.01.2004_3</v>
+      </c>
+      <c r="S6" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Sopot_3</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>Polska_3</v>
+      </c>
+      <c r="U6" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>Tomasz.Nowak5@gmail.com_3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>